--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.267595333333334</v>
+        <v>3.748362666666667</v>
       </c>
       <c r="H2">
-        <v>24.802786</v>
+        <v>11.245088</v>
       </c>
       <c r="I2">
-        <v>0.3656664502891759</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="J2">
-        <v>0.3656664502891758</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.144635333333333</v>
+        <v>0.8791276666666668</v>
       </c>
       <c r="N2">
-        <v>6.433906</v>
+        <v>2.637383</v>
       </c>
       <c r="O2">
-        <v>0.9914802952355238</v>
+        <v>0.9794679554003853</v>
       </c>
       <c r="P2">
-        <v>0.9914802952355239</v>
+        <v>0.9794679554003852</v>
       </c>
       <c r="Q2">
-        <v>17.73097707356845</v>
+        <v>3.295289324967111</v>
       </c>
       <c r="R2">
-        <v>159.578793662116</v>
+        <v>29.657603924704</v>
       </c>
       <c r="S2">
-        <v>0.3625510800904381</v>
+        <v>0.202947137349474</v>
       </c>
       <c r="T2">
-        <v>0.3625510800904381</v>
+        <v>0.202947137349474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.267595333333334</v>
+        <v>3.748362666666667</v>
       </c>
       <c r="H3">
-        <v>24.802786</v>
+        <v>11.245088</v>
       </c>
       <c r="I3">
-        <v>0.3656664502891759</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="J3">
-        <v>0.3656664502891758</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.055286</v>
       </c>
       <c r="O3">
-        <v>0.008519704764476069</v>
+        <v>0.02053204459961473</v>
       </c>
       <c r="P3">
-        <v>0.00851970476447607</v>
+        <v>0.02053204459961473</v>
       </c>
       <c r="Q3">
-        <v>0.1523607585328889</v>
+        <v>0.06907732612977777</v>
       </c>
       <c r="R3">
-        <v>1.371246826796</v>
+        <v>0.6216959351679999</v>
       </c>
       <c r="S3">
-        <v>0.003115370198737743</v>
+        <v>0.004254268506130135</v>
       </c>
       <c r="T3">
-        <v>0.003115370198737743</v>
+        <v>0.004254268506130136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>33.324913</v>
       </c>
       <c r="I4">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114622</v>
       </c>
       <c r="J4">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114623</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2.144635333333333</v>
+        <v>0.8791276666666668</v>
       </c>
       <c r="N4">
-        <v>6.433906</v>
+        <v>2.637383</v>
       </c>
       <c r="O4">
-        <v>0.9914802952355238</v>
+        <v>0.9794679554003853</v>
       </c>
       <c r="P4">
-        <v>0.9914802952355239</v>
+        <v>0.9794679554003852</v>
       </c>
       <c r="Q4">
-        <v>23.82326196668644</v>
+        <v>9.765617669186554</v>
       </c>
       <c r="R4">
-        <v>214.409357700178</v>
+        <v>87.890559022679</v>
       </c>
       <c r="S4">
-        <v>0.4871220193598363</v>
+        <v>0.6014355508618758</v>
       </c>
       <c r="T4">
-        <v>0.4871220193598364</v>
+        <v>0.6014355508618759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>33.324913</v>
       </c>
       <c r="I5">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114622</v>
       </c>
       <c r="J5">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114623</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.055286</v>
       </c>
       <c r="O5">
-        <v>0.008519704764476069</v>
+        <v>0.02053204459961473</v>
       </c>
       <c r="P5">
-        <v>0.00851970476447607</v>
+        <v>0.02053204459961473</v>
       </c>
       <c r="Q5">
         <v>0.2047112377908888</v>
@@ -756,10 +756,10 @@
         <v>1.842401140118</v>
       </c>
       <c r="S5">
-        <v>0.004185797548538619</v>
+        <v>0.01260756054958634</v>
       </c>
       <c r="T5">
-        <v>0.00418579754853862</v>
+        <v>0.01260756054958634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.233763666666666</v>
+        <v>3.233763666666667</v>
       </c>
       <c r="H6">
-        <v>9.701290999999999</v>
+        <v>9.701291000000001</v>
       </c>
       <c r="I6">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="J6">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.144635333333333</v>
+        <v>0.8791276666666668</v>
       </c>
       <c r="N6">
-        <v>6.433906</v>
+        <v>2.637383</v>
       </c>
       <c r="O6">
-        <v>0.9914802952355238</v>
+        <v>0.9794679554003853</v>
       </c>
       <c r="P6">
-        <v>0.9914802952355239</v>
+        <v>0.9794679554003852</v>
       </c>
       <c r="Q6">
-        <v>6.935243819182888</v>
+        <v>2.842891106828112</v>
       </c>
       <c r="R6">
-        <v>62.417194372646</v>
+        <v>25.586019961453</v>
       </c>
       <c r="S6">
-        <v>0.1418071957852495</v>
+        <v>0.1750852671890354</v>
       </c>
       <c r="T6">
-        <v>0.1418071957852495</v>
+        <v>0.1750852671890354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.233763666666666</v>
+        <v>3.233763666666667</v>
       </c>
       <c r="H7">
-        <v>9.701290999999999</v>
+        <v>9.701291000000001</v>
       </c>
       <c r="I7">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="J7">
-        <v>0.1430257328024492</v>
+        <v>0.1787554827329337</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,22 +868,22 @@
         <v>0.055286</v>
       </c>
       <c r="O7">
-        <v>0.008519704764476069</v>
+        <v>0.02053204459961473</v>
       </c>
       <c r="P7">
-        <v>0.00851970476447607</v>
+        <v>0.02053204459961473</v>
       </c>
       <c r="Q7">
-        <v>0.05959395269177777</v>
+        <v>0.05959395269177778</v>
       </c>
       <c r="R7">
-        <v>0.5363455742259999</v>
+        <v>0.536345574226</v>
       </c>
       <c r="S7">
-        <v>0.001218537017199708</v>
+        <v>0.003670215543898254</v>
       </c>
       <c r="T7">
-        <v>0.001218537017199708</v>
+        <v>0.003670215543898256</v>
       </c>
     </row>
   </sheetData>
